--- a/medicine/Enfance/Hervé_Jaouen/Hervé_Jaouen.xlsx
+++ b/medicine/Enfance/Hervé_Jaouen/Hervé_Jaouen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Herv%C3%A9_Jaouen</t>
+          <t>Hervé_Jaouen</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hervé Jaouen, né le 18 novembre 1946 à Quimper, est un écrivain français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Herv%C3%A9_Jaouen</t>
+          <t>Hervé_Jaouen</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Hervé Jaouen commence à écrire dès l'âge de seize ans et son premier manuscrit reçoit l'encouragement de Jean-Edern Hallier. Il se destinait à des études de lettres, le hasard le conduit à faire des études de droit et d'économie et à commencer une carrière dans la banque. À 24 ans, il devient chef d'agence et le restera pendant treize ans.
 En 1979, il inaugure une toute nouvelle collection de polars, Engrenage, par La Mariée rouge. Dans les années qui suivent, il s'affirme comme un des maîtres du roman noir français.
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Herv%C3%A9_Jaouen</t>
+          <t>Hervé_Jaouen</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,8 +565,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Littérature générale
-La Mariée rouge, Engrenage no 1, Éditions Jean Goujon, 1979
+          <t>Littérature générale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La Mariée rouge, Engrenage no 1, Éditions Jean Goujon, 1979
 La Mariée rouge figure dans Le Guide des 100 polars incontournables, ouvrage d'Hélène Amalric paru en mai 2008, en collection Librio.
 La Chasse au merle, Engrenage no 10, Éditions Jean Goujon, 1979
 La Petite Fille et le Pêcheur, Engrenage no 23, Éditions Jean Goujon, 1980
@@ -562,7 +581,7 @@
 Le Crime du syndicat, Denoël, Sueurs froides, 1984
 Pleure pas sur ton biniou, Gallimard, 1985
 Histoires d'ombres, Denoël, Sueurs froides, 1986
-L’Adieu aux îles, Mazarine, 1986, Prix de la Fédération des Bretons de Paris 1987[1]
+L’Adieu aux îles, Mazarine, 1986, Prix de la Fédération des Bretons de Paris 1987
 Les Chiens du Sud, Denoël, Sueurs froides, 1987
 Coup de chaleur, Fleuve Noir, 1987
 Le Fils du facteur américain, Payot, 1988
@@ -574,7 +593,7 @@
 Les Endetteurs, Stock, 1994
 Toutes les couleurs du noir, omnibus de cinq romans noirs d'Hervé Jaouen, Denoël, Sueurs froides, 1995
 Le Fossé, Denoël, Sueurs froides, 1995
-L'Allumeuse d'étoiles, Denoël, 1996, Prix Eugène-Dabit du roman populiste 1996[2]
+L'Allumeuse d'étoiles, Denoël, 1996, Prix Eugène-Dabit du roman populiste 1996
 La Tentation du banquier, Denoël, 1998
 Merci de fermer la porte, Nouvelles, Denoël, 1999
 Que ma terre demeure, Presses de la Cité, 2001, prix du roman du terroir de Cosnes-sur-Loire 2002, prix du pays de Caulnes (35) 2008[réf. nécessaire]
@@ -589,9 +608,9 @@
 Lettres de Groix et d'ailleurs, échange de correspondance avec Anne Pollier de 1986 à 1993, Éditions Diabase, 2007
 Les Filles de Roz-Kelenn, Presses de la Cité, 2007
 Petites Trahisons et Grands Malentendus, Nouvelles, Éditions Diabase, 2009, sélection finale Goncourt de la nouvelle[réf. nécessaire]
-Ceux de Ker-Askol, Presses de la Cité, 2009, prix du Roman de la ville de Carhaix 2010[3]
+Ceux de Ker-Askol, Presses de la Cité, 2009, prix du Roman de la ville de Carhaix 2010
 Aux armes Zécolos, Éditions Diabase, 2010
-Les Sœurs Gwenan, Presses de la Cité, 2010, prix du Roman Populaire d'Elven 2011[4]
+Les Sœurs Gwenan, Presses de la Cité, 2010, prix du Roman Populaire d'Elven 2011
 Ceux de Menglazeg, Presses de la Cité, 2011
 Dans l'œil du schizo, Presses de la Cité, 2012
 Gwaz-Ru, Presses de la Cité, 2013
@@ -600,27 +619,95 @@
 La Mariée rouge et six nouvelles pour finir la noce, éditions Omnibus, collection Bibliomnibus, 2015
 Connemara Queen, édition bilingue français/anglais, Coop Breizh, 2016
 Le Vicomte aux pieds nus, Presses de la Cité, 2017
-Sainte Zélie de la palud, Presses de la Cité, 2018, prix Terre de France - Ouest-France 2018[5],[6]
+Sainte Zélie de la palud, Presses de la Cité, 2018, prix Terre de France - Ouest-France 2018,
 L'Amour dans les sixties, Diabase, 2018
 Noces d'or irlandaises suivi de Le Spleen des sixties, poèmes, Diabase, 2019
 Le Bon Docteur Cogan, Presses de la Cité, 2019
 Retour à ma nature, Presses de la Cité, 2022
-Les Confidences du pommier, Presses de la Cité, 2023
-Littérature pour la jeunesse
-Le Monstre du lac noir, Syros, 1987
+Les Confidences du pommier, Presses de la Cité, 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hervé_Jaouen</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Herv%C3%A9_Jaouen</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Littérature pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le Monstre du lac noir, Syros, 1987
 La Croix du sud, Syros, 1988
 Le Cahier noir, Gallimard Jeunesse, 1992, Prix des Écrivains de l'Ouest 1992[réf. nécessaire]
 L'Oisif surmené, Seuil, 1995
 Stang Fall, Gallimard Jeunesse, 1995
 L'Or blanc au Loch Ness, Gallimard Jeunesse, 1998
 Singes d'hommes, Nathan, 1999
-Mamie mémoire, Gallimard Jeunesse, 1999, Prix Chronos 2000 (niveau 4e-3e)[7], Prix des Incorruptibles 2001[8] Prix Chronos (Suisse) 2014, pour la traduction en allemand[réf. nécessaire]
+Mamie mémoire, Gallimard Jeunesse, 1999, Prix Chronos 2000 (niveau 4e-3e), Prix des Incorruptibles 2001 Prix Chronos (Suisse) 2014, pour la traduction en allemand[réf. nécessaire]
 Combien je vous doigt ?, Nathan, 2000
 La Route de la liberté, Gallimard Jeunesse, Folio Junior, 2003
 Quelle vie de chien !, Skol Vreizh, 2017
-Pebezh buhez ki ! traduction en breton de Quelle vie de chien ! par Hervé Lossec, Skol Vreizh, 2017[9].
-Littérature de voyage et beaux livres
-Journal d'Irlande 1977-1983, Calligrammes, 1984, Prix des Écrivains Bretons[réf. nécessaire]
+Pebezh buhez ki ! traduction en breton de Quelle vie de chien ! par Hervé Lossec, Skol Vreizh, 2017.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hervé_Jaouen</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Herv%C3%A9_Jaouen</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Littérature de voyage et beaux livres</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Journal d'Irlande 1977-1983, Calligrammes, 1984, Prix des Écrivains Bretons[réf. nécessaire]
 Journal d'Irlande 1977-1983 1984-1989, Éditions Ouest-France, 1990
 Irlande, Éditions Ouest-France, 1992
 Chroniques irlandaises 1990-1995, Éditions Ouest-France, 1995
@@ -631,9 +718,43 @@
 Abers, Éditions du Télégramme, 2005
 Suite irlandaise, Presses de la Cité, 2008
 Carnets irlandais, l'intégrale, éditions Ouest-France, 2015
-A nos vertes amours irlandaises (Journal d'Irlande 2008/2018), éditions Ouest-France, 2019
-Nouvelles
-La Femme de Jules, in Série B no 13, 1979 et in Bonne Soirée no 3971, 18/03/1998
+A nos vertes amours irlandaises (Journal d'Irlande 2008/2018), éditions Ouest-France, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hervé_Jaouen</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Herv%C3%A9_Jaouen</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>La Femme de Jules, in Série B no 13, 1979 et in Bonne Soirée no 3971, 18/03/1998
 Le Centimètre, in Polar no 7, 12/1979
 Self-Bank, in Polar Hors Série no 1, 08/1980
 L'Indigestion, in Bulletin 813 no 3, 1981
@@ -664,67 +785,239 @@
 Ne dîne pas en ville, in Petites trahisons et grands malentendus, 2009
 Un saint homme, in Petites trahisons et grands malentendus, 2009
 Triste Fin pour un homme Pizh, in Livre d'or du Prix de la Ville de Carhaix, 2011
-Sternes, in L'Express, 2017
-Traductions
-L'Assassin, de Liam O'Flaherty, Joëlle Losfeld, 1996 et Rivages/noir, 1997
+Sternes, in L'Express, 2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hervé_Jaouen</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Herv%C3%A9_Jaouen</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Traductions</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>L'Assassin, de Liam O'Flaherty, Joëlle Losfeld, 1996 et Rivages/noir, 1997
 Les Robinsons du Connemara, de Guy St John Williams, Éditions Ouest-France, 2002
 Lettres de la grande Blasket, de Elisabeth O'Sullivan, éditions Dialogues, 2011, Prix du livre insulaire d'Ouessant, mention spéciale[réf. nécessaire]
-Ösdur, de Gunnar Persson, éditions Skol Vreizh, 2023
-Romans écrits sous pseudonymes
-Les binious bombardent, J.-M. Kérity, Éditions Le Signor, 1978
+Ösdur, de Gunnar Persson, éditions Skol Vreizh, 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hervé_Jaouen</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Herv%C3%A9_Jaouen</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Romans écrits sous pseudonymes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Les binious bombardent, J.-M. Kérity, Éditions Le Signor, 1978
 Le Voleur de jeans, Michael Ennis, Fleuve Noir, 1983
 Le Celte noir, Michaël Cliffden, Fleuve Noir, 1984
-Les Hommes-vecteurs, Michaël Cliffden, Fleuve Noir, 1985
-Ouvrages préfacés
-Le Grand Dictionnaires de cuisine - N° 3 - Poissons, Alexandre Dumas, Édit France, 1995
+Les Hommes-vecteurs, Michaël Cliffden, Fleuve Noir, 1985</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hervé_Jaouen</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Herv%C3%A9_Jaouen</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Ouvrages préfacés</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Le Grand Dictionnaires de cuisine - N° 3 - Poissons, Alexandre Dumas, Édit France, 1995
 Ces bretons du Canada, Véronique Mauras et Olivier Hamon, Cloître Éditeurs, 1997
 Deux Vagabonds en Irlande, texte de Bernard Pouchèle, photos de Pierre Josse, Terre de brume, 1998, Prix Arts en îles 1999
 L'Œil d'Inishall, Philippe Bagau, Blanc Silex Éditions, 2003
 Grand Quai, Anne Pollier, Éditions Diabase, 2007
 Un Siècle d'écrivains à Pont-Aven et ses environs, Bruno Geneste et Paul Sanda, Editions des Montagnes Noires, 2020
-Mauvais Départ, Liza Kerivel, Editions Goater, 2021
-Filmographie
-Haute-surveillance, 1982
+Mauvais Départ, Liza Kerivel, Editions Goater, 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Hervé_Jaouen</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Herv%C3%A9_Jaouen</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Haute-surveillance, 1982
 La Mariée rouge, 1985
 Le Monstre du lac noir, 1987
 Histoires d'ombres, 1988
 Crédit-bonheur, 1996
 Gardiens de la mer, 2000
 Hôpital souterrain, 2002
-Une belle affaire, 2002
-Théâtre
-Mamie mémoire a été adapté pour le Théâtre des Chimères par Jean-Marie Broucaret, 2006</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Herv%C3%A9_Jaouen</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Herv%C3%A9_Jaouen</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+Une belle affaire, 2002</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Hervé_Jaouen</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Herv%C3%A9_Jaouen</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Mamie mémoire a été adapté pour le Théâtre des Chimères par Jean-Marie Broucaret, 2006</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Hervé_Jaouen</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Herv%C3%A9_Jaouen</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Prix</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Grand prix de littérature policière 1991 pour Hôpital souterrain[10]
-Prix Eugène-Dabit du roman populiste 1996 pour L'Allumeuse d'étoiles[11]</t>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Grand prix de littérature policière 1991 pour Hôpital souterrain
+Prix Eugène-Dabit du roman populiste 1996 pour L'Allumeuse d'étoiles</t>
         </is>
       </c>
     </row>
